--- a/Cas test/Tests.xlsx
+++ b/Cas test/Tests.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Donnees de Paul\Desktop\Stage_réduit\Scripts\Cas test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\psaves\Documents\Stage_réduit\Scripts\Cas test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA55A52-DA82-4AAF-BE52-37C13C7896C9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -186,7 +185,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -303,7 +302,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -581,14 +580,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" style="1" customWidth="1"/>
@@ -1131,7 +1130,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K17" r:id="rId1" display="https://coco.gforge.inria.fr/" xr:uid="{24B053A8-44D2-4874-8C40-583809FB54AC}"/>
+    <hyperlink ref="K17" r:id="rId1" display="https://coco.gforge.inria.fr/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/Cas test/Tests.xlsx
+++ b/Cas test/Tests.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\psaves\Documents\Stage_réduit\Scripts\Cas test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\psaves\Desktop\github\mixed-optimization-benchmark.github.io\Cas test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
   <si>
     <t># Cont. var</t>
   </si>
@@ -98,48 +98,6 @@
     <t>Wong1</t>
   </si>
   <si>
-    <t>HS2</t>
-  </si>
-  <si>
-    <t>HS2 rand</t>
-  </si>
-  <si>
-    <t>HS229log</t>
-  </si>
-  <si>
-    <t>HS229log rand</t>
-  </si>
-  <si>
-    <t>HS229</t>
-  </si>
-  <si>
-    <t>HS3</t>
-  </si>
-  <si>
-    <t>bbob 10 3</t>
-  </si>
-  <si>
-    <t>bbob 21 3</t>
-  </si>
-  <si>
-    <t>bbob 22 3</t>
-  </si>
-  <si>
-    <t>bbob 21 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COCO. 2017. Black-box optimization benchmarking. http://coco.gforge.inria.fr/. </t>
-  </si>
-  <si>
-    <t>Hock W, Schittkowski K. 1981. Test examples for nonlinear programming codes. In:</t>
-  </si>
-  <si>
-    <t>Beckmann M, K€unzi HP, editors. Lecture notes in economics and mathematical systems.</t>
-  </si>
-  <si>
-    <t>vol. 187. Berlin: Springer.</t>
-  </si>
-  <si>
     <t>A Mixed Integer Efficient Global Optimization Algorithm with Multiple Infill Strategy - Applied to a Wing Topology Optimization Problem</t>
   </si>
   <si>
@@ -180,13 +138,40 @@
   </si>
   <si>
     <t>EVD52</t>
+  </si>
+  <si>
+    <t>Black-box optimization of mixed discrete-continuous optimization problems</t>
+  </si>
+  <si>
+    <t>Hal_1</t>
+  </si>
+  <si>
+    <t>Hal_2</t>
+  </si>
+  <si>
+    <t>Hal_3</t>
+  </si>
+  <si>
+    <t>Hal_4</t>
+  </si>
+  <si>
+    <t>Hal_5</t>
+  </si>
+  <si>
+    <t>(2,3)</t>
+  </si>
+  <si>
+    <t>(3)</t>
+  </si>
+  <si>
+    <t>(3,2,2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,6 +234,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -271,7 +264,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -300,6 +293,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -581,31 +575,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="51.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="1"/>
     <col min="5" max="5" width="11" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="1"/>
+    <col min="6" max="6" width="14.44140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -625,9 +619,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -635,7 +629,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
         <v>6</v>
@@ -647,13 +641,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
@@ -664,13 +658,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="2" t="s">
         <v>9</v>
@@ -682,15 +676,15 @@
         <v>0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -698,7 +692,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="2" t="s">
         <v>12</v>
@@ -710,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="2" t="s">
         <v>13</v>
@@ -728,13 +722,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="2" t="s">
         <v>10</v>
@@ -746,31 +740,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="1">
-        <v>1</v>
-      </c>
-      <c r="N10" s="1">
-        <v>0</v>
-      </c>
-      <c r="O10" s="1">
-        <v>1</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -779,26 +755,8 @@
       <c r="D11" s="2"/>
       <c r="E11" s="5"/>
       <c r="F11" s="2"/>
-      <c r="K11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="1">
-        <v>1</v>
-      </c>
-      <c r="N11" s="1">
-        <v>0</v>
-      </c>
-      <c r="O11" s="1">
-        <v>1</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
@@ -809,31 +767,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M12" s="1">
-        <v>1</v>
-      </c>
-      <c r="N12" s="1">
-        <v>0</v>
-      </c>
-      <c r="O12" s="1">
-        <v>1</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="2" t="s">
         <v>18</v>
@@ -845,28 +785,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M13" s="1">
-        <v>1</v>
-      </c>
-      <c r="N13" s="1">
-        <v>0</v>
-      </c>
-      <c r="O13" s="1">
-        <v>1</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
@@ -875,26 +800,11 @@
       <c r="D14" s="2"/>
       <c r="E14" s="5"/>
       <c r="F14" s="2"/>
-      <c r="L14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M14" s="1">
-        <v>1</v>
-      </c>
-      <c r="N14" s="1">
-        <v>0</v>
-      </c>
-      <c r="O14" s="1">
-        <v>1</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C15" s="2">
         <v>3</v>
@@ -903,28 +813,13 @@
         <v>0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M15" s="1">
-        <v>1</v>
-      </c>
-      <c r="N15" s="1">
-        <v>0</v>
-      </c>
-      <c r="O15" s="1">
-        <v>1</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="2" t="s">
         <v>19</v>
@@ -936,28 +831,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M16" s="1">
-        <v>1</v>
-      </c>
-      <c r="N16" s="1">
-        <v>0</v>
-      </c>
-      <c r="O16" s="1">
-        <v>1</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="2" t="s">
         <v>20</v>
@@ -969,31 +849,14 @@
         <v>0</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K17" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M17" s="1">
-        <v>2</v>
-      </c>
-      <c r="N17" s="1">
-        <v>0</v>
-      </c>
-      <c r="O17" s="1">
-        <v>1</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K17" s="10"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
@@ -1004,28 +867,13 @@
         <v>0</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M18" s="1">
-        <v>2</v>
-      </c>
-      <c r="N18" s="1">
-        <v>0</v>
-      </c>
-      <c r="O18" s="1">
-        <v>1</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
@@ -1036,55 +884,25 @@
         <v>0</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M19" s="1">
-        <v>2</v>
-      </c>
-      <c r="N19" s="1">
-        <v>0</v>
-      </c>
-      <c r="O19" s="1">
-        <v>1</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="5"/>
       <c r="F20" s="2"/>
-      <c r="L20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M20" s="1">
-        <v>3</v>
-      </c>
-      <c r="N20" s="1">
-        <v>0</v>
-      </c>
-      <c r="O20" s="1">
-        <v>2</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -1093,46 +911,111 @@
         <v>1</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="5"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E26" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="2">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="2">
+        <v>5</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="2">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="K17" r:id="rId1" display="https://coco.gforge.inria.fr/"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Cas test/Tests.xlsx
+++ b/Cas test/Tests.xlsx
@@ -578,7 +578,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Cas test/Tests.xlsx
+++ b/Cas test/Tests.xlsx
@@ -578,7 +578,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Cas test/Tests.xlsx
+++ b/Cas test/Tests.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
   <si>
     <t># Cont. var</t>
   </si>
@@ -165,6 +165,12 @@
   </si>
   <si>
     <t>(3,2,2)</t>
+  </si>
+  <si>
+    <t>A global method for mixed categorical optimization with catalogs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanaret </t>
   </si>
 </sst>
 </file>
@@ -575,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1014,6 +1020,33 @@
         <v>7</v>
       </c>
     </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Cas test/Tests.xlsx
+++ b/Cas test/Tests.xlsx
@@ -59,12 +59,6 @@
     <t>Branin_2</t>
   </si>
   <si>
-    <t>Golstein_1</t>
-  </si>
-  <si>
-    <t>Golstein_2</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -171,6 +165,12 @@
   </si>
   <si>
     <t xml:space="preserve">Vanaret </t>
+  </si>
+  <si>
+    <t>Goldstein_1</t>
+  </si>
+  <si>
+    <t>Goldstein_2</t>
   </si>
 </sst>
 </file>
@@ -583,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -627,7 +627,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -647,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>7</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>7</v>
@@ -673,7 +673,7 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2">
         <v>2</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>7</v>
@@ -690,7 +690,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -701,7 +701,7 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
@@ -710,16 +710,16 @@
         <v>0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2">
         <v>10</v>
@@ -728,16 +728,16 @@
         <v>0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
@@ -746,15 +746,15 @@
         <v>0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -764,7 +764,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -773,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>7</v>
@@ -782,7 +782,7 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>7</v>
@@ -799,7 +799,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -810,7 +810,7 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15" s="2">
         <v>3</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>7</v>
@@ -828,7 +828,7 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" s="2">
         <v>4</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>7</v>
@@ -846,7 +846,7 @@
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="2">
         <v>2</v>
@@ -855,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>7</v>
@@ -864,7 +864,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C18" s="2">
         <v>7</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>7</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
@@ -890,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>7</v>
@@ -898,7 +898,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -908,7 +908,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -917,7 +917,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>7</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -936,7 +936,7 @@
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
@@ -945,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>7</v>
@@ -954,7 +954,7 @@
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>7</v>
@@ -971,7 +971,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C25" s="2">
         <v>2</v>
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>7</v>
@@ -988,7 +988,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C26" s="2">
         <v>5</v>
@@ -997,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>7</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C27" s="2">
         <v>2</v>
@@ -1014,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>7</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -1041,10 +1041,10 @@
         <v>2</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
